--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/65_Rize_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/65_Rize_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE4085E8-668A-4C34-A6D9-A45333C60401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{914EDAF2-A8E7-4C63-AEC4-744393843B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{EC8E2492-9996-4A64-95CD-36FF20761D98}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{08D90BDF-5860-459F-9A41-0805B599F77B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -968,13 +968,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{D3995CE7-4A10-4AE7-927E-99AF324A36F3}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{37D50633-CC30-40E6-8028-BE68C5526477}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{1FFF6D38-E63D-443F-86A6-C9C6D5ACA066}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{DFC007DA-AA30-4673-80B8-06722C29D61D}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{C2A136FC-247C-457A-A955-9390F2DC39BE}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{BE7998A6-A820-464E-8F89-BE5F19A0F0B7}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{46324554-7414-4AE3-B226-3D437EE4C634}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{252E05EF-2266-409B-9220-06B39903C1BD}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F22087C1-C29B-4695-99E9-BCD7C44A3A61}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{637572E7-D8B8-421B-9D0C-D7A04CD6157E}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{A0EFBCF9-B70E-4B27-8560-8AC2C99A5BD6}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{6C5BDB45-E7D8-4901-B630-487D2DC47571}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{7725D74F-8428-488B-A90C-D172C7CCFA88}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{9A0DCC0E-1E7B-4201-8A35-CBC53916742C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1344,7 +1344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDED61F2-1202-4DA1-9E24-2DAA95A4D98A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D8EECE-55E2-4D9D-AE56-6961B9105306}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2617,18 +2617,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{39F26C5F-07A4-4D3C-9569-278A94E53DD2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B738AFC4-4DA5-46F5-B051-F95FD411E174}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{098DB5B5-26F8-4BFC-BFD5-122401347E9F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CE46537B-5A5F-4347-8D54-C8BE9DB02BAF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8D3B6B47-F618-4312-9B89-B385DE7BC99F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E5CAA740-2754-4157-9E1C-3F6162BB1A1E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B66F4C7E-8F29-4600-849E-CFC5AD3F402B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1BB8891A-723F-448F-8A35-797DCD0397FE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{56202CEF-FD20-474E-A857-3EB7D6127680}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{12CFFB1D-E91A-477C-8F59-B332B8C96751}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D3B15616-0D0C-44F5-891E-B77E9FA5DC6D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C4C94C80-B52F-4905-AA14-963470A7C310}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{89AC919E-4FC7-40A3-8BBD-73A2A2DD0FAE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D238ADC7-528E-45BF-9B1F-110793312671}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{178609B1-550C-4824-9C7D-BCDF618B0FB2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{355C71EC-5D55-4094-A575-F53F463CD2C4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E5373A64-B558-48DC-AE1E-845964B50FB4}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8F4E68CC-B68A-4C68-889C-1E449D3282B1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{93C9385E-3F22-4DB5-A336-22ABF2CC2BA5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BBDB6310-2283-428A-8608-71F0380913C4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2F9B97A9-7596-4F56-8CDB-2E3838888DD4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{22F3C889-85F5-4656-B86C-48B3F7325092}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A4D78E68-EE8F-4204-B08F-028318148D17}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{889D1736-674C-44E3-A719-AD551DADECA2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2641,7 +2641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BA2603-90BC-413B-8D4D-C342E8A75ACD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BA3BD4-031F-45B5-968C-A6E522180217}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3903,18 +3903,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{67B9014F-6A3A-4048-B122-C6CEE43F7651}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8133F3A2-0563-4347-B7C3-2B62E098573A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{04D8563B-D134-4E7F-B48E-E2DBC1820C2C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CFFE0AE7-BF86-4196-8060-C1CBA34589DB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CB8B130C-CF5A-4576-8332-8AA8DC4139C7}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5495E359-1D3B-4695-A043-BF65AA43CA67}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CCDC25B6-2358-4B45-8F97-34B74015C4FF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{35AEF6DF-286F-471F-83DF-8C93270C851B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B6DE3B4-E109-43A4-8119-01ADF1B9F6BB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{95D3AFB5-0B29-4FFD-B942-2668A96E64DB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{78DBACF1-67F2-417F-A58B-2C186C433C41}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D7FE0659-01F5-4E70-A297-A8F3F9737DAC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{20C898CD-6650-4A97-A2C4-C3C361EC9A5E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8B1B0ED5-DEA2-4F74-B1E2-07BA1DFBAA74}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DCF94CAD-BEF6-48D0-9C64-070A0156EE2E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{896D5512-6C31-4BE8-98CE-227D1C392C3F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C7FFD422-5240-4F3F-9378-1313E0C488F1}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1D279D91-2B42-426C-8AB4-69B0481B78FB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{085C98CC-7815-4475-878D-341C6481D305}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B166D899-8E4E-47DB-AE12-87D48DBC201A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D565C2BF-744E-41E1-9E23-7C2495454124}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{89F864BC-6ABE-4367-878A-C7D8CA33C835}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DDFF042A-2208-4549-AA50-B1749BFE7FB2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6F38DC9A-6EA8-4C16-92A1-1E6A2BC57916}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3927,7 +3927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E447C9-0484-4C2B-A654-ED4E7F4A3613}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CB6259-882E-41AF-979C-C2F08462B73A}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5189,18 +5189,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F5B9D77E-319C-434C-8F93-F0BF53048F1F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C36A7342-5641-482C-B0D8-70B015EA9C38}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{70197562-AECC-4A3A-8261-B9F1B305293D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{86B28766-4284-4B3B-8803-C45105D9CF65}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C77FEEE4-09A3-43EB-ADEF-C9FE36DE345E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E2C6338D-B987-4BB1-8161-E24C060CE72A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EAD608B1-998A-482C-B186-6C8F40E258C9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8677D12F-0454-46EF-8CCE-7647DCBA9D7C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5BBE8CB1-58B8-43FD-9A06-D797B2B38302}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A158E595-8A6C-4E89-B27B-752D64816307}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{78E493D5-74F5-4503-8067-450F234CBB06}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{90938B40-17E2-4325-90F9-F4E1C0C03D85}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{45A07768-9027-4141-8CD7-78BE89BF3269}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B15BE86-991E-47BC-9915-92CC4B575345}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CC565555-B63D-4F56-9125-EF0CC5A18A14}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{696AEB08-4578-43FA-B377-00187980CAD2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CFBA90E4-E3C1-41A9-8D15-648280AA1EA8}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{046A1882-52E8-4D7B-BEAB-2EA1AA32A45F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9746694-1054-4584-AA43-6B2CD29BDD6F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F2D6C4BB-C1C0-43DD-9ABB-98A7B1FAAA8F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{313C6718-C870-45AA-AC97-F375803C8993}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{802D4267-8473-4377-B75C-F415001A3E90}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3EB8DEB2-C51C-4213-81EA-4B3D60ED81CC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5D6E14F9-DDE6-4F1B-AFA6-0B0AD6ED291C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5213,7 +5213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77852C23-9E8C-47A3-A732-CD705DCF2488}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30ABA74C-1411-4331-98DC-F45707E1D85A}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6461,18 +6461,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8AD5BFA0-6051-46AF-8CE3-AA93015FAE02}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F4DE261F-2A19-4DAC-B4AB-B88ED6CA066D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0A017ED5-3EFA-4FC4-B1DB-7F4FA0EBF9FB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F6EA6D42-0DF7-4ED6-B7EE-19EB1A08D480}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7AFFA277-3099-481C-A443-0937F5C8813D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BF2C1870-52B7-4544-9547-0EAD0AC4FE78}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B26009B-CD83-41BE-8652-A262D2281AC3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7581D98E-6FD0-47C2-8EF2-06C04591FF14}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3AC6C738-824D-405F-8978-985A5CF4D5BC}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{71253772-1EE2-4656-A812-49FD7520D105}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{19CEF604-FADA-45D5-8352-2792E68515EA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7E7A8C93-7D56-4344-B712-8CDCBF691738}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{81E676A2-DA17-4D3A-993A-7B2356304403}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{231E2CF1-3A6E-4FAC-AEC3-A94A9AAE4901}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{30A879F6-B322-48D0-B6BD-168322AD45D3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{40F92F30-2F34-4677-A180-805A0D083ED8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{04392EF8-B10A-45E7-B79B-EE1F4553CD43}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D0F942ED-4AE4-4ADE-8E3B-89F0EABB336D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1DDC6DF2-297F-41CC-B36E-5340F2FFE02D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6D4CD836-8DAE-46B2-98FD-17C753E2AD66}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{040252F3-AC36-4B72-938F-29987B3440C2}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A83488A5-A6CA-46B6-9776-7E4ADE76470C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{174F3101-7C8C-4795-BA53-1B666C6C22AA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EFCC0DF2-06F2-4D43-9A50-10F51FFCF7D0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6485,7 +6485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB4F60A-4802-4826-84A2-AAF81D84B7F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2573F5-5427-4C72-8D2A-FAB304A312B5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7758,18 +7758,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{55E95E3A-F6BD-45BC-9767-AEDBF7A8F977}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EEBF60F7-52E9-4950-9A8C-705950A78496}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4469276D-0534-4427-B2EA-85CCB792399E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5E71DD02-B9AC-44FF-88F8-A49C6657805A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4AE6C08E-D5B3-4DD6-99F3-8391CB18119C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{18AF8D07-9051-4846-A89F-747344D1238A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{61C7FC04-69B1-481B-948E-E9F64FC5A00A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{15D78BFA-1859-4DBD-A886-76D3466853D6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6332511B-B5A3-4B97-A421-8BB0A834A225}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7B3EE810-D5C2-45C9-9674-B6E5147CC66D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7D9222A1-9270-4474-83A8-178829BF3F69}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{117DEE68-95B2-4496-8436-6CEAA1725EFB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C44E72D3-BE39-4D6E-8762-8CADB8D0D604}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{25D5A7F7-87C1-4825-8A32-C3C9D4619C9D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B260AE4E-9232-458E-BBE2-19256D44F368}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5E47491D-3088-4990-868C-C6A82D5740E2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DF623B24-183A-4876-BAB8-D297D0720E5E}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{461B2DDA-A165-4DB1-BAD8-A8E742A4D03A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{424294E3-1EB1-4671-9950-7E7E7D66E37A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{96179FE4-5B17-4DF7-9ACF-3BCF12E83EC2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D0CC3974-8CDB-42C7-B4EA-FC8C37F28903}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3AD0DD6B-606B-4960-8768-4BA5C491F5FE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9E0F9286-D319-4770-89F3-43EBF27C3A8A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{35393CC8-270F-4B8E-989A-B934C83607A4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7782,7 +7782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268CFC20-5A80-4E1C-A9FF-0F03848A81C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00E3F82-F0C6-413A-8A36-7B7A61CF50E7}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -9056,18 +9056,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8D8549CF-D007-4A91-AF71-E02B4587DCC5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E3CF0A1E-8D59-4B2E-B9A7-E464162C44D7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DB8004D7-6ADB-4F8D-BACE-E54F3C638A13}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C153C946-DBD1-45B3-9B48-D3A629649456}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F7CE6195-791A-4758-849E-95E50EA5C2E7}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BDE8C84C-10F2-41D7-852D-04F7D8691FC6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C0D70E62-FE1E-442F-95D7-DAAAAC73819C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3C0B4E9E-CFA4-4413-867C-77DFEC4F2911}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D2214A87-AB77-4DD2-AABA-02AED35E6BEA}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{58C73F6C-C147-44CA-923D-8682356EC281}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CB16D8EF-E1DA-4139-8E3F-40FBFE86B04E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{131E6237-6F87-401E-A2FC-796B7C476C3E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BC5EAE9D-477C-4D79-A96F-484D7DFBA770}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27927728-4698-4C45-A802-A344FC10EED8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D54E970B-3D40-41B0-BE95-E4F74694DAF0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{33660A09-7A0F-463E-95F3-3BC686E3D841}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{08DC0923-CC74-4572-A71E-2898B67F0381}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5D9CC334-C34C-48EF-82AF-5C89294B3609}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{81EF7781-E915-4176-B021-4D7F6B436B84}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9CDA5BB5-D432-454D-B70B-6BE543773B14}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B26C32A6-792F-4698-A97B-F0D37D9612A4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{83CB11B1-63B5-431D-B55B-6F389260BE50}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{94D88AB2-8F5A-49C3-A38E-8F6CB23FF85F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5F631EDA-C7B7-4B2F-AC4A-E9D77B2E8D6F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9080,7 +9080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE3AA2B-0326-4B79-85B9-624293EEC790}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE33EECF-F71F-488B-802E-AA5748AD28A8}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -10354,18 +10354,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AED44F16-2AF7-4A6D-813C-B2178CB28319}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A0616BE6-96C4-4C20-A90F-7E431DEB7E59}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6937AFED-FCA4-408C-AE50-4986A2858E8D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4B945644-1FD9-45C6-8489-BD57D39528A5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4F625007-D72C-4D04-B983-EC730E545172}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6C9A9D73-DDC2-49D1-836E-71B5834BEABD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{157BF543-FF7C-4438-8F78-D5F55A06F39E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5FE81494-3D5D-4F46-975B-C5E2B7DD06BB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8E66EB34-6D8D-4549-8C41-343DFE4ED864}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A8969AB1-8C0D-4BB8-BC24-3330C0C44164}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{238F5AA0-9FB2-4635-96DE-AD143FBBE28A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{21F2C610-7739-4B77-9397-7EDCEE211533}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2A24D105-7B2C-411E-8A89-E7B80F6AB483}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7C12B29D-FCB6-4030-9F61-D041B139CF9D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{692CFE65-DEC3-43DA-9E1B-AC88EF7CB73D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{963EDAA7-6AA4-4A36-8EC1-B8FF391F94B6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CD9F27DD-38B9-427D-B93C-8CA719590775}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{37A37564-9DEC-423F-8A5D-385A720C9145}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EB505AE4-22DF-42C6-9814-59AE02231BE7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3047A3E3-9D22-4CCE-99F5-C4A9AA9D5CB4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5AA5ED05-D43A-4479-A4AD-686D507CAF1A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3CB34BD0-BB6C-4327-B257-7465B727AD90}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F5ABE4D0-3222-47B4-99E7-A7B0FFBC251A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{571CDED2-EA01-466F-9586-008A15694079}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10378,7 +10378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FC0070-7C5A-47C8-922C-FFDD0FE45DD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD57498-281E-41A1-BAFE-824742C62477}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11652,18 +11652,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC6B859B-CF1E-4D7C-A668-04FCC8743E38}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{21206FD0-BEEB-4E67-A9DC-5C1B4507012B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4CCEFC98-C728-4879-AE56-E443599F04D8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F0106C3F-C9AD-47D2-8732-B0A22BA7D7CF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{550916FA-3FBB-4468-AD0D-4BB0363178ED}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1BEF2E00-C6D0-46C5-A05E-60CDA7985754}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C5FB8BF7-2C38-4DD4-857A-E94BE56384F3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{38D7EF22-8F98-4CC4-A4D0-E1DD3108C5EB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BC82FEF5-9B4C-4102-99E4-9C300B71803B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7C3556AB-A32B-4085-AB1D-C43A3FB2A923}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6FC0978F-A4F9-4853-977E-6074F5026B55}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{16AF5DB5-EC14-490E-9D07-FC03F59236B1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8184D238-F7CD-4D5A-A2BC-65CEA8F7C607}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B566D06A-D207-4AF6-BCF5-686CC086FCE1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AE8EEC9E-1E9C-49BE-8A25-E6ED3D358EE8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BE363569-C6B9-4B7B-AF19-9C6BF5C65C81}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A325D601-7A71-42CA-8D39-FDF39E165D04}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{31EC7D35-3B9F-42F2-A105-0FBC6AD1006F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{88C73568-3E03-41AE-ABB9-0D40359D799F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D08569D9-78DE-4CEA-8410-F438195167AD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{793B5F9E-A7FC-4BA7-AD1B-0287C0A1B47B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1C407128-3321-46E4-A7C1-2FB7F038EB22}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0A705CEC-F8D9-4151-A4BF-8A0D9D4C9549}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{81CA3DAB-65D1-4155-AAE8-1B5D804503D4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11676,7 +11676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3522D5-E56E-4916-881D-9F3A284AAFBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111EE14E-B153-4DF4-B90E-61CE72BAD400}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -12942,18 +12942,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9765B015-6B26-4BD9-9040-3B2299223056}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{70E83C24-04EF-4067-96F4-8EF5A1455FC6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C4DEB320-BF49-48FE-9251-94CFF7301086}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D939A6DE-5FF4-4AD4-8C9F-C0DA40980DA7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{45F84A77-0251-4A62-8410-4707CEB48353}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{ADFCCE53-A3B9-4E40-A894-4AE77A403F8D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A3504B7A-D988-44DC-9736-6D03555E515C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{716D4387-1F7E-4BC9-8A65-588CE48A7326}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F5EEC13A-6FA8-489C-8FFA-05F16D319AC0}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0569F893-C17C-493C-AE63-BB950FEB3C87}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7B332CAD-086B-4C83-98BE-C806415293AB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8D01B07E-CCF7-4702-B11A-12200571909B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A882EBA0-AD01-44E1-BD05-64B5AE5D369D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E3002933-27A1-462C-81DE-FE38D44A23BB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F451E72E-E9E6-4780-9BF0-83D271E1A548}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{48146C92-411A-4382-9790-2EF9A5FFE649}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F00A760A-9FC8-4BDA-80A7-EC8DB2E9463F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{36A91F0B-2D00-47BE-AB6A-CDEF905746A7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{153E6142-13CE-4D6F-BD5D-088B38A12280}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{163637BD-5C30-4DA5-96D2-B12BB9DB77D7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{63EA2243-784E-46DD-8B53-94FFA78E60A9}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BBF44F9B-E751-4570-8B4C-4AD9C76EF8CD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{90EFDC72-528C-434B-B736-C97A5D2198BB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C99C9588-B5AF-49CB-AA99-F1385CB8736A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12966,7 +12966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE2DDA2-C48D-4EF4-8761-6121E9D366A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E91D0F5-4245-46AB-BAA3-4EAF1C015ED7}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14228,18 +14228,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{82C04C15-2CFC-47AF-B40E-AFB1EE47C3F0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AFEF361F-2A35-46E9-9E3D-06B7E6B2246D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AB7EC862-CE43-404B-8338-D101E81CB8A5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CD1064F6-27C7-4A10-ADAA-38CE8392B945}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1FA483BD-7B12-4563-AAAE-C180366079A3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{19B4C2E4-756C-47FE-A8FD-FAE082773251}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8EE9EAD-959A-42A1-AA71-B6B39F472045}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{58587CAB-2095-4977-9B50-96EB78D08892}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6DBBE1F9-F821-4973-ABC5-4E9D443F1524}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5CC17E1B-99D1-4D2D-A892-55817CE2D60F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7EBF9EDC-FD2A-4C39-BA59-737798AAD145}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D13853E3-03D9-40A6-B812-C0C635DE3295}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0009320C-34EE-4F50-8CA2-AC431395D3BF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{15AAB5D1-E2E7-4D78-A4F7-7A698B59FA6F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D9801C22-F461-4E16-B778-46F55592BA38}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{287F7C85-0DAF-4119-BFE4-00930BE3621B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FA9DB682-953F-4E8D-991C-D2A1FEB1BB2E}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0D619AD1-A522-418E-940D-591E379F39D7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{25BC7DA5-E057-49ED-8258-2F89B440697D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DEA1E4F8-B5B8-48C9-A030-13C375CD6829}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4BBF3917-B762-4BC4-9CD0-6E854766628D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{AB4C20BB-48AE-49A4-A285-19F6B92BB483}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{09B6279B-395A-421F-B60A-52BA05D05BC8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{62D45779-9333-45A3-967F-27241D825966}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14252,7 +14252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0404CFDE-0A27-4B4B-957B-3FC11D531F10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43782AFE-AEAF-4EEF-B9E5-9335115237A4}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15514,18 +15514,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CDC7B486-BBBB-4416-A3A9-0EBC113C3484}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4A792A16-9216-432F-8E43-DB4B6829544E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{91F1290B-53FD-4D81-9F8F-4B0FE9DE064D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BE91B223-190B-4C47-B549-B1C4297E47BB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{42231019-B39E-42AA-9807-9AE86A56E028}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B061E8C9-FDDB-415D-94E2-DD3FD651CFD0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D89ACBBB-0D27-4762-A931-0D673D7C2153}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{87E8F026-E9C0-4084-A003-9D7DC144BCAD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D1259637-09A4-4A29-A9E9-2B5BF9A9E4DD}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{05911263-7D20-4E1A-9344-BE0876363548}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D604F84F-5A35-49C6-8410-75408F1E8609}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EB17C22E-9AD6-4351-8028-F43BABDDDC82}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9F41B4FC-66E0-49BC-9699-76D2C4AC6DE2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{91A4E66F-AEB6-490D-86C0-B2C130DDD3BE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{967611C8-2407-4668-8AE6-9B6DF289198A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{63BCA6BF-B32A-41D6-9CAF-D18F6BABD967}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{520E56F9-DDDB-458B-A041-9F7CAB2CC3F4}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4C83443B-4567-4A8B-A24D-51CEAFCB028D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8C3E235E-C75C-4D18-AA28-47376738A3B0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D2698986-82C0-4028-ABC7-9C8EDAA6B90C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E166E8B2-2715-4E79-9C2E-B7672C2E9B59}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D9F12FF8-1B54-4C14-B118-63042ED4C0DE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9AC5D1BE-FA19-4E56-ABD6-0B6F4968B305}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AD1915ED-CF7A-407A-A474-1829EADA9CCE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15538,7 +15538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64908C2A-AD73-4B8B-8D43-DF02AC494C2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06A2F0E-E834-4D32-AE38-021D9F069AF7}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -16800,18 +16800,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E16B0518-C271-4774-8AC0-E1AEA6FEED8C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{10224119-CA1F-419C-B6F2-6B4B091CA67C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{16A77511-B1BF-4892-B465-5BC9BFC13AA4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2E485A6B-6E77-400E-ACA7-9B5E2D07CD66}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{39F274E5-32AE-4841-BDF3-111B93D96630}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{09475027-2AC8-4027-93F5-D54F35F40728}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0EB1FA8E-176D-45F1-AD89-D29D350FBCB3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{28327415-272F-47C9-9B93-8855FE42F25B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2FE759CD-9B7A-4D30-84F2-E9AE06B570DE}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4D9DA503-5560-460F-BF47-3C94FE1978FC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8F78893D-38A3-46CE-8762-C33AD7E083B8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{67CD5782-AB95-404A-B40C-F6B943742372}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{03C35736-296E-4801-8664-1142CF4B41FF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BB2F4AF6-E51A-4AF3-9EBC-A76D3481072F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C644034A-810D-4D91-9AF7-E696613A79A1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EB3FF7EB-1FD4-4399-A17D-B49F6931D627}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{04E52BDA-E79F-4889-95B5-5E19CB248D91}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{63E5CE53-3F30-4381-A38E-11CB0317F9CA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2AE834A-B78B-451A-BDD7-8519E525CC1D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{27DE0ADF-DC39-4297-BD02-A72738CDBE2F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EBB070D5-A05F-41A3-9940-318ACE79E014}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{66504806-A510-4712-BC13-65CA875D3D9F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15FD930A-2DEF-4914-B5A7-507954C0A06B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{33BB663C-BDFC-4EDE-BB14-1B51C80089D9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
